--- a/biology/Botanique/Copeau/Copeau.xlsx
+++ b/biology/Botanique/Copeau/Copeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un copeau  est une petite chute de matière créée à la suite d'un usinage sur machine-outil  — ou par un outil manuel de type « rabot » — d'une matière telle que le bois, le métal, le plastique, etc. On parle par extension de copeaux de chocolat.
 </t>
@@ -511,7 +523,9 @@
           <t>Copeaux de bois</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les copeaux de bois peuvent être directement produits, généralement pour un usage énergétique, à partir de TCR (taillis à courte rotation) ou TTCR (taillis à très courte rotation).
 Certains copeaux de chêne sont utilisés pour donner un goût à du vin et ainsi imiter un vieillissement en fût.
@@ -543,19 +557,125 @@
           <t>Mécanique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quelle que soit la matière usinée, le copeau produit répond aux mêmes caractéristiques qui correspondent aux trois mouvements qui influencent les dimensions du copeau :
 mouvement de coupe : exprimé en mètres par minute (m/min), il correspond à la longueur développée du copeau ;
 mouvement de pénétration : ou profondeur de passe, exprimé en mm, il correspond à la largeur du copeau et influe sur le réglage de la cote de la pièce,
-mouvement d’avance : exprimé en millimètres par tour, par coup ou par dent ; il correspond à l’épaisseur du copeau.
-Avance par tour
-L’avance par tour ou avance par coup est l’épaisseur offerte à l’outil pour un tour de la pièce sur un tour ou une course de l’outil sur raboteuse ou étau limeur.
+mouvement d’avance : exprimé en millimètres par tour, par coup ou par dent ; il correspond à l’épaisseur du copeau.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Copeau</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copeau</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mécanique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Avance par tour</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’avance par tour ou avance par coup est l’épaisseur offerte à l’outil pour un tour de la pièce sur un tour ou une course de l’outil sur raboteuse ou étau limeur.
 Pour le cas de la fraiseuse, c’est l’épaisseur offerte à l’ensemble des dents pour un tour de la fraise.
-Section du copeau
-La section du copeau étant sensiblement un parallélogramme, sa section est égale au produit de l’avance par tour ou par coup (en mm) par la profondeur de passe (en mm).
-Copeau minimum
-Le copeau minimum est l’épaisseur minimum du copeau que peut tailler un outil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Copeau</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copeau</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mécanique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Section du copeau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La section du copeau étant sensiblement un parallélogramme, sa section est égale au produit de l’avance par tour ou par coup (en mm) par la profondeur de passe (en mm).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Copeau</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copeau</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Mécanique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Copeau minimum</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le copeau minimum est l’épaisseur minimum du copeau que peut tailler un outil.
 Effet d’une avance inférieure au copeau minimum (cas de tournage) : La pièce repousse l’outil jusqu’à ce que l’avance accumulée soit suffisante pour tailler le métal et que la coupe ne s’effectue que tous les 2 ou 3 tours. L’outil s’émousse, la surface usinée est rugueuse.
 Le copeau taillé minimum :
 augmente avec la dureté de la pièce ;
